--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H2">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I2">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J2">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>827.0204069452075</v>
+        <v>4727.629977471379</v>
       </c>
       <c r="R2">
-        <v>7443.183662506868</v>
+        <v>42548.66979724241</v>
       </c>
       <c r="S2">
-        <v>0.00119393041096817</v>
+        <v>0.006282879077250943</v>
       </c>
       <c r="T2">
-        <v>0.001193930410968171</v>
+        <v>0.006282879077250943</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H3">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I3">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J3">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>1270.55451828338</v>
+        <v>3893.235097459301</v>
       </c>
       <c r="R3">
-        <v>11434.99066455042</v>
+        <v>35039.11587713371</v>
       </c>
       <c r="S3">
-        <v>0.001834239718188773</v>
+        <v>0.005173993196000748</v>
       </c>
       <c r="T3">
-        <v>0.001834239718188774</v>
+        <v>0.005173993196000748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H4">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I4">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J4">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>634.8872096495083</v>
+        <v>2246.130593037907</v>
       </c>
       <c r="R4">
-        <v>5713.984886845576</v>
+        <v>20215.17533734116</v>
       </c>
       <c r="S4">
-        <v>0.0009165567630128541</v>
+        <v>0.002985040490694061</v>
       </c>
       <c r="T4">
-        <v>0.0009165567630128543</v>
+        <v>0.002985040490694061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H5">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I5">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J5">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>1010.535831591419</v>
+        <v>2270.286985480056</v>
       </c>
       <c r="R5">
-        <v>9094.822484322774</v>
+        <v>20432.5828693205</v>
       </c>
       <c r="S5">
-        <v>0.001458862986424397</v>
+        <v>0.003017143614961375</v>
       </c>
       <c r="T5">
-        <v>0.001458862986424397</v>
+        <v>0.003017143614961375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H6">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I6">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J6">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>507.6141115305592</v>
+        <v>1710.051526567239</v>
       </c>
       <c r="R6">
-        <v>4568.527003775033</v>
+        <v>15390.46373910515</v>
       </c>
       <c r="S6">
-        <v>0.0007328185854948031</v>
+        <v>0.002272607418196656</v>
       </c>
       <c r="T6">
-        <v>0.0007328185854948033</v>
+        <v>0.002272607418196656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.723857666666666</v>
+        <v>26.731658</v>
       </c>
       <c r="H7">
-        <v>26.171573</v>
+        <v>80.194974</v>
       </c>
       <c r="I7">
-        <v>0.007098432040951201</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="J7">
-        <v>0.007098432040951203</v>
+        <v>0.02353393228912</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>666.3814931912922</v>
+        <v>2861.063898291031</v>
       </c>
       <c r="R7">
-        <v>5997.43343872163</v>
+        <v>25749.57508461929</v>
       </c>
       <c r="S7">
-        <v>0.0009620235768622022</v>
+        <v>0.003802268492016214</v>
       </c>
       <c r="T7">
-        <v>0.0009620235768622026</v>
+        <v>0.003802268492016214</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I8">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J8">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>100961.8721565515</v>
+        <v>188350.7361968583</v>
       </c>
       <c r="R8">
-        <v>908656.8494089637</v>
+        <v>1695156.625771725</v>
       </c>
       <c r="S8">
-        <v>0.1457538997873528</v>
+        <v>0.2503125044208724</v>
       </c>
       <c r="T8">
-        <v>0.1457538997873528</v>
+        <v>0.2503125044208724</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I9">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J9">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>155108.09862199</v>
@@ -1013,10 +1013,10 @@
         <v>1395972.88759791</v>
       </c>
       <c r="S9">
-        <v>0.2239222567872056</v>
+        <v>0.2061340316793388</v>
       </c>
       <c r="T9">
-        <v>0.2239222567872057</v>
+        <v>0.2061340316793388</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I10">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J10">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>77506.43243644913</v>
+        <v>89486.77303617021</v>
       </c>
       <c r="R10">
-        <v>697557.8919280422</v>
+        <v>805380.957325532</v>
       </c>
       <c r="S10">
-        <v>0.1118923861544535</v>
+        <v>0.1189252493699548</v>
       </c>
       <c r="T10">
-        <v>0.1118923861544536</v>
+        <v>0.1189252493699548</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I11">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J11">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>123365.2623102768</v>
+        <v>90449.17371516171</v>
       </c>
       <c r="R11">
-        <v>1110287.360792491</v>
+        <v>814042.5634364553</v>
       </c>
       <c r="S11">
-        <v>0.1780966190101078</v>
+        <v>0.1202042511359099</v>
       </c>
       <c r="T11">
-        <v>0.1780966190101078</v>
+        <v>0.1202042511359099</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I12">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J12">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>61969.05252013358</v>
+        <v>68129.16101690638</v>
       </c>
       <c r="R12">
-        <v>557721.4726812022</v>
+        <v>613162.4491521574</v>
       </c>
       <c r="S12">
-        <v>0.08946180253998626</v>
+        <v>0.09054162071557198</v>
       </c>
       <c r="T12">
-        <v>0.08946180253998628</v>
+        <v>0.09054162071557198</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3195.000976</v>
       </c>
       <c r="I13">
-        <v>0.8665698962346957</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="J13">
-        <v>0.8665698962346958</v>
+        <v>0.9376016087099961</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>81351.22490094563</v>
+        <v>113985.9705851169</v>
       </c>
       <c r="R13">
-        <v>732161.0241085107</v>
+        <v>1025873.735266052</v>
       </c>
       <c r="S13">
-        <v>0.1174429319555897</v>
+        <v>0.1514839513883482</v>
       </c>
       <c r="T13">
-        <v>0.1174429319555897</v>
+        <v>0.1514839513883482</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H14">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I14">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J14">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>80.11254168452032</v>
+        <v>30.44536919913688</v>
       </c>
       <c r="R14">
-        <v>721.0128751606829</v>
+        <v>274.008322792232</v>
       </c>
       <c r="S14">
-        <v>0.0001156547033348369</v>
+        <v>4.046098659412173E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001156547033348369</v>
+        <v>4.046098659412173E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H15">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I15">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J15">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>123.0771948958409</v>
+        <v>25.0719663945831</v>
       </c>
       <c r="R15">
-        <v>1107.694754062568</v>
+        <v>225.647697551248</v>
       </c>
       <c r="S15">
-        <v>0.0001776807496511226</v>
+        <v>3.33198947118781E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001776807496511226</v>
+        <v>3.33198947118781E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H16">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I16">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J16">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>61.50081378993688</v>
+        <v>14.46481122684889</v>
       </c>
       <c r="R16">
-        <v>553.5073241094319</v>
+        <v>130.18330104164</v>
       </c>
       <c r="S16">
-        <v>8.878582833804376E-05</v>
+        <v>1.922330221413857E-05</v>
       </c>
       <c r="T16">
-        <v>8.878582833804376E-05</v>
+        <v>1.922330221413857E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H17">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I17">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J17">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>97.88947558271389</v>
+        <v>14.62037549264911</v>
       </c>
       <c r="R17">
-        <v>881.005280244425</v>
+        <v>131.583379433842</v>
       </c>
       <c r="S17">
-        <v>0.0001413184255556967</v>
+        <v>1.943004247837704E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001413184255556967</v>
+        <v>1.943004247837704E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H18">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I18">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J18">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>49.17201114764866</v>
+        <v>11.01252642951844</v>
       </c>
       <c r="R18">
-        <v>442.548100328838</v>
+        <v>99.11273786566599</v>
       </c>
       <c r="S18">
-        <v>7.098731661833492E-05</v>
+        <v>1.463531880062696E-05</v>
       </c>
       <c r="T18">
-        <v>7.098731661833493E-05</v>
+        <v>1.463531880062696E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8450703333333333</v>
+        <v>0.1721486666666666</v>
       </c>
       <c r="H19">
-        <v>2.535211</v>
+        <v>0.516446</v>
       </c>
       <c r="I19">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="J19">
-        <v>0.0006876171712327699</v>
+        <v>0.0001515556971810586</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>64.55162980593444</v>
+        <v>18.42490785041977</v>
       </c>
       <c r="R19">
-        <v>580.9646682534101</v>
+        <v>165.824170653778</v>
       </c>
       <c r="S19">
-        <v>9.319014773473498E-05</v>
+        <v>2.448615238191617E-05</v>
       </c>
       <c r="T19">
-        <v>9.319014773473499E-05</v>
+        <v>2.448615238191617E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H20">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I20">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J20">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>14445.87867974402</v>
+        <v>7664.682386656948</v>
       </c>
       <c r="R20">
-        <v>130012.9081176962</v>
+        <v>68982.14147991252</v>
       </c>
       <c r="S20">
-        <v>0.02085483468613587</v>
+        <v>0.01018613403129693</v>
       </c>
       <c r="T20">
-        <v>0.02085483468613588</v>
+        <v>0.01018613403129693</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H21">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I21">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J21">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>22193.25698977382</v>
+        <v>6311.917519097253</v>
       </c>
       <c r="R21">
-        <v>199739.3129079645</v>
+        <v>56807.25767187528</v>
       </c>
       <c r="S21">
-        <v>0.03203935987069109</v>
+        <v>0.008388349914660786</v>
       </c>
       <c r="T21">
-        <v>0.03203935987069109</v>
+        <v>0.008388349914660786</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H22">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I22">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J22">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>11089.81535267684</v>
+        <v>3641.545060977267</v>
       </c>
       <c r="R22">
-        <v>99808.33817409154</v>
+        <v>32773.9055487954</v>
       </c>
       <c r="S22">
-        <v>0.01600984412281837</v>
+        <v>0.00483950465275581</v>
       </c>
       <c r="T22">
-        <v>0.01600984412281837</v>
+        <v>0.00483950465275581</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H23">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I23">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J23">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>17651.41210798568</v>
+        <v>3680.708674999264</v>
       </c>
       <c r="R23">
-        <v>158862.7089718712</v>
+        <v>33126.37807499337</v>
       </c>
       <c r="S23">
-        <v>0.02548251232409086</v>
+        <v>0.00489155192640051</v>
       </c>
       <c r="T23">
-        <v>0.02548251232409087</v>
+        <v>0.00489155192640051</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H24">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I24">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J24">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>8866.687943508436</v>
+        <v>2772.425481354223</v>
       </c>
       <c r="R24">
-        <v>79800.19149157591</v>
+        <v>24951.82933218801</v>
       </c>
       <c r="S24">
-        <v>0.01280041978579728</v>
+        <v>0.003684470682571155</v>
       </c>
       <c r="T24">
-        <v>0.01280041978579728</v>
+        <v>0.003684470682571155</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>152.382926</v>
+        <v>43.33877</v>
       </c>
       <c r="H25">
-        <v>457.148778</v>
+        <v>130.01631</v>
       </c>
       <c r="I25">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="J25">
-        <v>0.1239910009702851</v>
+        <v>0.03815444888131313</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>11639.93793167169</v>
+        <v>4638.507280144704</v>
       </c>
       <c r="R25">
-        <v>104759.4413850452</v>
+        <v>41746.56552130233</v>
       </c>
       <c r="S25">
-        <v>0.01680403018075164</v>
+        <v>0.006164437673627933</v>
       </c>
       <c r="T25">
-        <v>0.01680403018075165</v>
+        <v>0.006164437673627933</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H26">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I26">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J26">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>23.78000542419433</v>
+        <v>75.87248740357511</v>
       </c>
       <c r="R26">
-        <v>214.020048817749</v>
+        <v>682.8523866321759</v>
       </c>
       <c r="S26">
-        <v>3.433007385368508E-05</v>
+        <v>0.000100832270274645</v>
       </c>
       <c r="T26">
-        <v>3.433007385368509E-05</v>
+        <v>0.000100832270274645</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H27">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I27">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J27">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>36.53331052387822</v>
+        <v>62.48150390338488</v>
       </c>
       <c r="R27">
-        <v>328.799794714904</v>
+        <v>562.3335351304639</v>
       </c>
       <c r="S27">
-        <v>5.274141977815978E-05</v>
+        <v>8.303605304569897E-05</v>
       </c>
       <c r="T27">
-        <v>5.274141977815979E-05</v>
+        <v>8.303605304569896E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H28">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I28">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J28">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>18.25543984456622</v>
+        <v>36.04755785439111</v>
       </c>
       <c r="R28">
-        <v>164.298958601096</v>
+        <v>324.42802068952</v>
       </c>
       <c r="S28">
-        <v>2.635451871923603E-05</v>
+        <v>4.790612804060509E-05</v>
       </c>
       <c r="T28">
-        <v>2.635451871923603E-05</v>
+        <v>4.790612804060508E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H29">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I29">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J29">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>29.05677702119722</v>
+        <v>36.43523742957289</v>
       </c>
       <c r="R29">
-        <v>261.510993190775</v>
+        <v>327.917136866156</v>
       </c>
       <c r="S29">
-        <v>4.194790048587873E-05</v>
+        <v>4.842134262025583E-05</v>
       </c>
       <c r="T29">
-        <v>4.194790048587874E-05</v>
+        <v>4.842134262025583E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H30">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I30">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J30">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>14.59585062741266</v>
+        <v>27.44416621588755</v>
       </c>
       <c r="R30">
-        <v>131.362655646714</v>
+        <v>246.997495942988</v>
       </c>
       <c r="S30">
-        <v>2.107134212369126E-05</v>
+        <v>3.647247744262384E-05</v>
       </c>
       <c r="T30">
-        <v>2.107134212369126E-05</v>
+        <v>3.647247744262383E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.2508443333333333</v>
+        <v>0.4290093333333333</v>
       </c>
       <c r="H31">
-        <v>0.752533</v>
+        <v>1.287028</v>
       </c>
       <c r="I31">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="J31">
-        <v>0.0002041071187839237</v>
+        <v>0.0003776898762533613</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>19.16102116658111</v>
+        <v>45.91646038677822</v>
       </c>
       <c r="R31">
-        <v>172.44919049923</v>
+        <v>413.248143481004</v>
       </c>
       <c r="S31">
-        <v>2.766186382327282E-05</v>
+        <v>6.102160482953262E-05</v>
       </c>
       <c r="T31">
-        <v>2.766186382327283E-05</v>
+        <v>6.102160482953261E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H32">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I32">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J32">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>168.8130966709817</v>
+        <v>36.3130086667631</v>
       </c>
       <c r="R32">
-        <v>1519.317870038835</v>
+        <v>326.817078000868</v>
       </c>
       <c r="S32">
-        <v>0.0002437075170003006</v>
+        <v>4.825890424412332E-05</v>
       </c>
       <c r="T32">
-        <v>0.0002437075170003006</v>
+        <v>4.825890424412332E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H33">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I33">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J33">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>259.3481864770177</v>
+        <v>29.90400697801688</v>
       </c>
       <c r="R33">
-        <v>2334.13367829316</v>
+        <v>269.136062802152</v>
       </c>
       <c r="S33">
-        <v>0.0003744087621829027</v>
+        <v>3.974153236684563E-05</v>
       </c>
       <c r="T33">
-        <v>0.0003744087621829027</v>
+        <v>3.974153236684563E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H34">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I34">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J34">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>129.5944755385378</v>
+        <v>17.25256842865111</v>
       </c>
       <c r="R34">
-        <v>1166.35027984684</v>
+        <v>155.27311585786</v>
       </c>
       <c r="S34">
-        <v>0.0001870894407677924</v>
+        <v>2.292814829539364E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001870894407677924</v>
+        <v>2.292814829539364E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H35">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I35">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J35">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>206.2726404274028</v>
+        <v>17.43811410212589</v>
       </c>
       <c r="R35">
-        <v>1856.453763846625</v>
+        <v>156.943026919133</v>
       </c>
       <c r="S35">
-        <v>0.0002977860960730745</v>
+        <v>2.317473295521354E-05</v>
       </c>
       <c r="T35">
-        <v>0.0002977860960730745</v>
+        <v>2.317473295521354E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H36">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I36">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J36">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>103.6152304849233</v>
+        <v>13.13493572905655</v>
       </c>
       <c r="R36">
-        <v>932.53707436431</v>
+        <v>118.214421561509</v>
       </c>
       <c r="S36">
-        <v>0.0001495844282396557</v>
+        <v>1.745593738646711E-05</v>
       </c>
       <c r="T36">
-        <v>0.0001495844282396557</v>
+        <v>1.745593738646711E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.780731666666667</v>
+        <v>0.2053263333333333</v>
       </c>
       <c r="H37">
-        <v>5.342195</v>
+        <v>0.6159789999999999</v>
       </c>
       <c r="I37">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="J37">
-        <v>0.001448946464051256</v>
+        <v>0.0001807645461362684</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>136.0231530989389</v>
+        <v>21.97588191755522</v>
       </c>
       <c r="R37">
-        <v>1224.20837789045</v>
+        <v>197.782937257997</v>
       </c>
       <c r="S37">
-        <v>0.0001963702197875295</v>
+        <v>2.920529088822518E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001963702197875296</v>
+        <v>2.920529088822518E-05</v>
       </c>
     </row>
   </sheetData>
